--- a/ceremonies/早晚香禮.xlsx
+++ b/ceremonies/早晚香禮.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Xepht\Documents\Temple\Ceremonies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Xepht\Documents\Xepht\Scripts\Temple\phonetic guide\ceremonies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A2E991-6506-4DE5-AD0F-D4794610329C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273B1349-6987-4970-836F-BC59732B9309}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{2BBAFA9E-A7D8-4F4B-8D6B-58199A75B9D1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{2BBAFA9E-A7D8-4F4B-8D6B-58199A75B9D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="144">
   <si>
     <t>row</t>
   </si>
@@ -463,9 +463,6 @@
   </si>
   <si>
     <t>叩求老砪大慈大悲</t>
-  </si>
-  <si>
-    <t>rowZhuyin</t>
   </si>
 </sst>
 </file>
@@ -817,25 +814,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09321D9D-24BB-4A0C-993D-25BDAAAB4083}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -844,18 +843,15 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>142</v>
@@ -864,18 +860,15 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -884,18 +877,15 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -904,18 +894,15 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -924,18 +911,15 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -944,18 +928,15 @@
         <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
@@ -964,18 +945,15 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>2</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -984,18 +962,15 @@
         <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>3</v>
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1004,18 +979,15 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>3</v>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1024,18 +996,15 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>4</v>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1044,18 +1013,15 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1064,18 +1030,15 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>5</v>
+      <c r="B13" t="s">
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1084,18 +1047,15 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14">
-        <v>5</v>
+      <c r="B14" t="s">
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1104,18 +1064,15 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15">
-        <v>6</v>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1124,18 +1081,15 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>6</v>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1144,17 +1098,14 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
@@ -1164,18 +1115,15 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18">
-        <v>7</v>
+      <c r="B18" t="s">
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1184,18 +1132,15 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19">
-        <v>8</v>
+      <c r="B19" t="s">
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1204,17 +1149,14 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
@@ -1224,18 +1166,15 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21">
-        <v>9</v>
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -1244,18 +1183,15 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
-      <c r="B22">
-        <v>9</v>
+      <c r="B22" t="s">
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1264,18 +1200,15 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23">
-        <v>10</v>
+      <c r="B23" t="s">
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -1284,18 +1217,15 @@
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24">
-        <v>10</v>
+      <c r="B24" t="s">
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -1304,18 +1234,15 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
-      <c r="B25">
-        <v>11</v>
+      <c r="B25" t="s">
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -1324,18 +1251,15 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26">
-        <v>11</v>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -1344,18 +1268,15 @@
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
-      <c r="B27">
-        <v>12</v>
+      <c r="B27" t="s">
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
@@ -1364,18 +1285,15 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28">
-        <v>12</v>
+      <c r="B28" t="s">
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>45</v>
@@ -1384,18 +1302,15 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29">
-        <v>13</v>
+      <c r="B29" t="s">
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -1404,18 +1319,15 @@
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
-      <c r="B30">
-        <v>13</v>
+      <c r="B30" t="s">
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -1424,18 +1336,15 @@
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
-      <c r="B31">
-        <v>14</v>
+      <c r="B31" t="s">
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -1444,18 +1353,15 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
-      <c r="B32">
-        <v>14</v>
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -1464,18 +1370,15 @@
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15</v>
       </c>
-      <c r="B33">
-        <v>15</v>
+      <c r="B33" t="s">
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -1484,18 +1387,15 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
-      <c r="B34">
-        <v>15</v>
+      <c r="B34" t="s">
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>45</v>
@@ -1504,18 +1404,15 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16</v>
       </c>
-      <c r="B35">
-        <v>16</v>
+      <c r="B35" t="s">
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
@@ -1524,18 +1421,15 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16</v>
       </c>
-      <c r="B36">
-        <v>16</v>
+      <c r="B36" t="s">
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
@@ -1544,18 +1438,15 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>17</v>
       </c>
-      <c r="B37">
-        <v>17</v>
+      <c r="B37" t="s">
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
@@ -1564,18 +1455,15 @@
         <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
-      <c r="B38">
-        <v>17</v>
+      <c r="B38" t="s">
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1584,18 +1472,15 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18</v>
       </c>
-      <c r="B39">
-        <v>18</v>
+      <c r="B39" t="s">
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -1604,18 +1489,15 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>18</v>
       </c>
-      <c r="B40">
-        <v>18</v>
+      <c r="B40" t="s">
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>45</v>
@@ -1624,18 +1506,15 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19</v>
       </c>
-      <c r="B41">
-        <v>19</v>
+      <c r="B41" t="s">
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>49</v>
@@ -1644,18 +1523,15 @@
         <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19</v>
       </c>
-      <c r="B42">
-        <v>19</v>
+      <c r="B42" t="s">
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -1664,18 +1540,15 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20</v>
       </c>
-      <c r="B43">
-        <v>20</v>
+      <c r="B43" t="s">
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
@@ -1684,18 +1557,15 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20</v>
       </c>
-      <c r="B44">
-        <v>20</v>
+      <c r="B44" t="s">
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
@@ -1704,18 +1574,15 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21</v>
       </c>
-      <c r="B45">
-        <v>21</v>
+      <c r="B45" t="s">
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>53</v>
@@ -1724,18 +1591,15 @@
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>21</v>
       </c>
-      <c r="B46">
-        <v>21</v>
+      <c r="B46" t="s">
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>45</v>
@@ -1744,18 +1608,15 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
-      <c r="B47">
-        <v>22</v>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>55</v>
@@ -1764,18 +1625,15 @@
         <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>22</v>
       </c>
-      <c r="B48">
-        <v>22</v>
+      <c r="B48" t="s">
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
@@ -1784,18 +1642,15 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23</v>
       </c>
-      <c r="B49">
-        <v>23</v>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>79</v>
@@ -1804,18 +1659,15 @@
         <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50">
-        <v>24</v>
+      <c r="B50" t="s">
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>91</v>
@@ -1824,18 +1676,15 @@
         <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>24</v>
       </c>
-      <c r="B51">
-        <v>24</v>
+      <c r="B51" t="s">
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -1844,18 +1693,15 @@
         <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52">
-        <v>25</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>82</v>
@@ -1864,18 +1710,15 @@
         <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>26</v>
       </c>
-      <c r="B53">
-        <v>26</v>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>83</v>
@@ -1884,18 +1727,15 @@
         <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54">
-        <v>26</v>
+      <c r="B54" t="s">
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -1904,18 +1744,15 @@
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>27</v>
       </c>
-      <c r="B55">
-        <v>27</v>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>85</v>
@@ -1924,18 +1761,15 @@
         <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
-      <c r="B56">
-        <v>27</v>
+      <c r="B56" t="s">
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -1944,18 +1778,15 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>28</v>
       </c>
-      <c r="B57">
-        <v>28</v>
+      <c r="B57" t="s">
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>87</v>
@@ -1964,18 +1795,15 @@
         <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>28</v>
       </c>
-      <c r="B58">
-        <v>28</v>
+      <c r="B58" t="s">
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -1984,18 +1812,15 @@
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>29</v>
       </c>
-      <c r="B59">
-        <v>29</v>
+      <c r="B59" t="s">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
@@ -2004,18 +1829,15 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60">
-        <v>29</v>
+      <c r="B60" t="s">
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
@@ -2024,18 +1846,15 @@
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>30</v>
       </c>
-      <c r="B61">
-        <v>30</v>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
@@ -2044,18 +1863,15 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
-      <c r="B62">
-        <v>30</v>
+      <c r="B62" t="s">
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
@@ -2064,18 +1880,15 @@
         <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>31</v>
       </c>
-      <c r="B63">
-        <v>31</v>
+      <c r="B63" t="s">
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
@@ -2084,18 +1897,15 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>31</v>
       </c>
-      <c r="B64">
-        <v>31</v>
+      <c r="B64" t="s">
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
@@ -2104,18 +1914,15 @@
         <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>32</v>
       </c>
-      <c r="B65">
-        <v>32</v>
+      <c r="B65" t="s">
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
@@ -2124,18 +1931,15 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>32</v>
       </c>
-      <c r="B66">
-        <v>32</v>
+      <c r="B66" t="s">
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -2144,18 +1948,15 @@
         <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>33</v>
       </c>
-      <c r="B67">
-        <v>33</v>
+      <c r="B67" t="s">
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>65</v>
@@ -2164,18 +1965,15 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>33</v>
       </c>
-      <c r="B68">
-        <v>33</v>
+      <c r="B68" t="s">
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -2184,18 +1982,15 @@
         <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>34</v>
       </c>
-      <c r="B69">
-        <v>34</v>
+      <c r="B69" t="s">
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>67</v>
@@ -2204,18 +1999,15 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>34</v>
       </c>
-      <c r="B70">
-        <v>34</v>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -2224,18 +2016,15 @@
         <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>35</v>
       </c>
-      <c r="B71">
-        <v>35</v>
+      <c r="B71" t="s">
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>143</v>
@@ -2244,18 +2033,15 @@
         <v>94</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>35</v>
       </c>
-      <c r="B72">
-        <v>35</v>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>89</v>
@@ -2264,18 +2050,15 @@
         <v>90</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>36</v>
       </c>
-      <c r="B73">
-        <v>36</v>
+      <c r="B73" t="s">
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>69</v>
@@ -2284,18 +2067,15 @@
         <v>95</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>36</v>
       </c>
-      <c r="B74">
-        <v>36</v>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>70</v>
@@ -2304,9 +2084,6 @@
         <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
         <v>140</v>
       </c>
     </row>
